--- a/evaluacion_riesgo_historial.xlsx
+++ b/evaluacion_riesgo_historial.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
   <si>
     <t>Id</t>
   </si>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t>2023-03-07 20:47:31.000</t>
+  </si>
+  <si>
+    <t>2023-03-08 16:53:47.000</t>
   </si>
 </sst>
 </file>
@@ -470,7 +473,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -724,6 +727,68 @@
       </c>
       <c r="T4" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>34</v>
+      </c>
+      <c r="R5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S5" t="s">
+        <v>34</v>
+      </c>
+      <c r="T5" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
